--- a/it-challenges-3-zb0156/config.xlsx
+++ b/it-challenges-3-zb0156/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\canvas-course-scaffolder-with-course-configs\folder_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0157634\Documents\Repo\canvas-course-scaffolder-with-course-configs\IT-challenges-3-zb0156\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D9047-6C78-40AF-81D7-119259C59FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421AE024-36B3-429F-A9AF-EEEBE5C7D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Naam</t>
   </si>
@@ -78,18 +78,12 @@
     <t>01.00</t>
   </si>
   <si>
-    <t>02.00</t>
-  </si>
-  <si>
     <t>Gepubliceerd</t>
   </si>
   <si>
     <t>00 - Algemene informatie</t>
   </si>
   <si>
-    <t>01 - Sequentie</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Opdrachtbeschrijving (html-betand)</t>
   </si>
   <si>
-    <t>autograde_opdracht.html</t>
-  </si>
-  <si>
     <t>Leerdoelen</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>Canvas cursus ID</t>
   </si>
   <si>
-    <t>Joren Synaeve, Joeri Verlooy</t>
-  </si>
-  <si>
     <t>Feedback en begeleiding</t>
   </si>
   <si>
@@ -156,78 +144,15 @@
     <t>studiemateriaal.html</t>
   </si>
   <si>
-    <t>Programming essentials</t>
-  </si>
-  <si>
     <t>Naam OPO</t>
   </si>
   <si>
     <t>course_image.jpg</t>
   </si>
   <si>
-    <t>joeri.verlooy@thomasmore.be,joren.synaeve@thomasmore.be,indy.hendrickx@thomasmore.be,matthias.claessen@thomasmore.be</t>
-  </si>
-  <si>
-    <t>01.06</t>
-  </si>
-  <si>
-    <t>01.07</t>
-  </si>
-  <si>
-    <t>01.08</t>
-  </si>
-  <si>
-    <t>01.09</t>
-  </si>
-  <si>
-    <t>01.10</t>
-  </si>
-  <si>
-    <t>02.06</t>
-  </si>
-  <si>
-    <t>02.07</t>
-  </si>
-  <si>
-    <t>02.08</t>
-  </si>
-  <si>
-    <t>02.09</t>
-  </si>
-  <si>
-    <t>02.10</t>
-  </si>
-  <si>
     <t>01.01*</t>
   </si>
   <si>
-    <t>01.02*</t>
-  </si>
-  <si>
-    <t>01.03*</t>
-  </si>
-  <si>
-    <t>01.04*</t>
-  </si>
-  <si>
-    <t>01.05*</t>
-  </si>
-  <si>
-    <t>02.01*</t>
-  </si>
-  <si>
-    <t>02.02*</t>
-  </si>
-  <si>
-    <t>02.03*</t>
-  </si>
-  <si>
-    <t>02.04*</t>
-  </si>
-  <si>
-    <t>02.05*</t>
-  </si>
-  <si>
     <t>Examenmodule</t>
   </si>
   <si>
@@ -271,6 +196,15 @@
   </si>
   <si>
     <t>Indentatie niveau (leeg laten of 0 invullen indien indentatie niet nodig is)</t>
+  </si>
+  <si>
+    <t>MVC framework development</t>
+  </si>
+  <si>
+    <t>Maarten Moonen, Joren Synaeve, Matthias Claessen</t>
+  </si>
+  <si>
+    <t>maarten.moonen@thomasmore.be,joren.synaeve@thomasmore.be,matthias.claessen@thomasmore.be</t>
   </si>
 </sst>
 </file>
@@ -712,52 +646,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1">
-        <v>10139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -774,19 +710,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3118A98-9BEA-444D-AD4F-736CD22AB1F7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,28 +730,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -828,27 +748,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C0AF-0EEA-45EA-A4B8-73E6C5261177}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -866,345 +786,41 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45116.999305555553</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45122.999305555553</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45198.999305555553</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45198.999305555553</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45198.999305555553</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,25 +841,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E53BFF-A074-4792-ACA4-A95EAABEB22A}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1261,19 +877,17 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>45066.999305555553</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="F2">
         <v>100</v>
       </c>
@@ -1281,16 +895,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>45066.999305555553</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="F3">
         <v>100</v>
       </c>
@@ -1298,10 +910,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
   </sheetData>
@@ -1315,55 +927,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457B5F6-0D60-4A35-BC13-7D2947E918FD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="140.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="140.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -1380,75 +984,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1457,48 +1061,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1530,80 +1134,80 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
